--- a/price_list.xlsx
+++ b/price_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Price list</t>
   </si>
@@ -30,36 +30,12 @@
     <t>Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Info </t>
-  </si>
-  <si>
-    <t>Child name</t>
-  </si>
-  <si>
     <t>Child age</t>
   </si>
   <si>
-    <t>Choose language</t>
-  </si>
-  <si>
-    <t>Learning level</t>
-  </si>
-  <si>
-    <t>Choose color</t>
-  </si>
-  <si>
-    <t>Learning goal</t>
-  </si>
-  <si>
-    <t>Calculating screen</t>
-  </si>
-  <si>
     <t>Current learning level</t>
   </si>
   <si>
-    <t>Subscription</t>
-  </si>
-  <si>
     <t>Getting started</t>
   </si>
   <si>
@@ -67,6 +43,18 @@
   </si>
   <si>
     <t>Page number</t>
+  </si>
+  <si>
+    <t>Email page</t>
+  </si>
+  <si>
+    <t>How free trial works</t>
+  </si>
+  <si>
+    <t>Choose a plan</t>
+  </si>
+  <si>
+    <t>Check learning level</t>
   </si>
 </sst>
 </file>
@@ -123,12 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,153 +412,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(C3:C13)</f>
-        <v>145</v>
-      </c>
+      <c r="C10" s="1">
+        <f>SUM(C3:C9)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
